--- a/output/TAVOLA_09141867000131.xlsx
+++ b/output/TAVOLA_09141867000131.xlsx
@@ -2121,10 +2121,10 @@
         <v>44165</v>
       </c>
       <c r="B158">
-        <v>3.2731368</v>
+        <v>3.2724452</v>
       </c>
       <c r="C158">
-        <v>0.1063159687416326</v>
+        <v>0.1061369133638639</v>
       </c>
     </row>
   </sheetData>

--- a/output/TAVOLA_09141867000131.xlsx
+++ b/output/TAVOLA_09141867000131.xlsx
@@ -14,12 +14,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
   <si>
     <t>TAVOLA ABSOLUTO FUNDO DE INVESTIMENTO EM COTAS DE FUNDOS DE INVESTIMENTO MULTIMERCADO</t>
-  </si>
-  <si>
-    <t>mensal</t>
   </si>
   <si>
     <t>d</t>
@@ -386,1745 +383,1274 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C158"/>
+  <dimension ref="A1:B158"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:2">
       <c r="A1" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3">
+    </row>
+    <row r="2" spans="1:2">
       <c r="A2" s="2">
         <v>39416</v>
       </c>
       <c r="B2">
-        <v>-0.01533388999999996</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
       <c r="A3" s="2">
         <v>39447</v>
       </c>
       <c r="B3">
-        <v>-0.03011796</v>
-      </c>
-      <c r="C3">
         <v>-0.01501429758763606</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:2">
       <c r="A4" s="2">
         <v>39478</v>
       </c>
       <c r="B4">
-        <v>-0.10298247</v>
-      </c>
-      <c r="C4">
         <v>-0.07512718763201354</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:2">
       <c r="A5" s="2">
         <v>39507</v>
       </c>
       <c r="B5">
-        <v>-0.06203535999999998</v>
-      </c>
-      <c r="C5">
         <v>0.04564805996600763</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:2">
       <c r="A6" s="2">
         <v>39538</v>
       </c>
       <c r="B6">
-        <v>-0.17223488</v>
-      </c>
-      <c r="C6">
         <v>-0.1174879257708478</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" spans="1:2">
       <c r="A7" s="2">
         <v>39568</v>
       </c>
       <c r="B7">
-        <v>-0.1368517299999999</v>
-      </c>
-      <c r="C7">
         <v>0.04274539859809501</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
+    <row r="8" spans="1:2">
       <c r="A8" s="2">
         <v>39599</v>
       </c>
       <c r="B8">
-        <v>0.03733533000000011</v>
-      </c>
-      <c r="C8">
         <v>0.2018043319486698</v>
       </c>
     </row>
-    <row r="9" spans="1:3">
+    <row r="9" spans="1:2">
       <c r="A9" s="2">
         <v>39629</v>
       </c>
       <c r="B9">
-        <v>-0.02569226999999996</v>
-      </c>
-      <c r="C9">
         <v>-0.06075913754908946</v>
       </c>
     </row>
-    <row r="10" spans="1:3">
+    <row r="10" spans="1:2">
       <c r="A10" s="2">
         <v>39660</v>
       </c>
       <c r="B10">
-        <v>-0.10093938</v>
-      </c>
-      <c r="C10">
         <v>-0.07723135892599364</v>
       </c>
     </row>
-    <row r="11" spans="1:3">
+    <row r="11" spans="1:2">
       <c r="A11" s="2">
         <v>39691</v>
       </c>
       <c r="B11">
-        <v>-0.2049714500000001</v>
-      </c>
-      <c r="C11">
         <v>-0.1157119638940476</v>
       </c>
     </row>
-    <row r="12" spans="1:3">
+    <row r="12" spans="1:2">
       <c r="A12" s="2">
         <v>39721</v>
       </c>
       <c r="B12">
-        <v>-0.36268974</v>
-      </c>
-      <c r="C12">
         <v>-0.1983806619271722</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
+    <row r="13" spans="1:2">
       <c r="A13" s="2">
         <v>39752</v>
       </c>
       <c r="B13">
-        <v>-0.5048155400000001</v>
-      </c>
-      <c r="C13">
         <v>-0.2230088057895068</v>
       </c>
     </row>
-    <row r="14" spans="1:3">
+    <row r="14" spans="1:2">
       <c r="A14" s="2">
         <v>39782</v>
       </c>
       <c r="B14">
-        <v>-0.49320429</v>
-      </c>
-      <c r="C14">
         <v>0.02344833276876268</v>
       </c>
     </row>
-    <row r="15" spans="1:3">
+    <row r="15" spans="1:2">
       <c r="A15" s="2">
         <v>39813</v>
       </c>
       <c r="B15">
-        <v>-0.45897142</v>
-      </c>
-      <c r="C15">
         <v>0.06754767123028715</v>
       </c>
     </row>
-    <row r="16" spans="1:3">
+    <row r="16" spans="1:2">
       <c r="A16" s="2">
         <v>39844</v>
       </c>
       <c r="B16">
-        <v>-0.4318370499999999</v>
-      </c>
-      <c r="C16">
         <v>0.0501533024373686</v>
       </c>
     </row>
-    <row r="17" spans="1:3">
+    <row r="17" spans="1:2">
       <c r="A17" s="2">
         <v>39872</v>
       </c>
       <c r="B17">
-        <v>-0.43058073</v>
-      </c>
-      <c r="C17">
         <v>0.0022111966294176</v>
       </c>
     </row>
-    <row r="18" spans="1:3">
+    <row r="18" spans="1:2">
       <c r="A18" s="2">
         <v>39903</v>
       </c>
       <c r="B18">
-        <v>-0.40186777</v>
-      </c>
-      <c r="C18">
         <v>0.050424988251627</v>
       </c>
     </row>
-    <row r="19" spans="1:3">
+    <row r="19" spans="1:2">
       <c r="A19" s="2">
         <v>39933</v>
       </c>
       <c r="B19">
-        <v>-0.23860507</v>
-      </c>
-      <c r="C19">
         <v>0.2729541927543346</v>
       </c>
     </row>
-    <row r="20" spans="1:3">
+    <row r="20" spans="1:2">
       <c r="A20" s="2">
         <v>39964</v>
       </c>
       <c r="B20">
-        <v>-0.1473361399999999</v>
-      </c>
-      <c r="C20">
         <v>0.1198706826167073</v>
       </c>
     </row>
-    <row r="21" spans="1:3">
+    <row r="21" spans="1:2">
       <c r="A21" s="2">
         <v>39994</v>
       </c>
       <c r="B21">
-        <v>-0.11238085</v>
-      </c>
-      <c r="C21">
         <v>0.04099539295590637</v>
       </c>
     </row>
-    <row r="22" spans="1:3">
+    <row r="22" spans="1:2">
       <c r="A22" s="2">
         <v>40025</v>
       </c>
       <c r="B22">
-        <v>0.02511613000000001</v>
-      </c>
-      <c r="C22">
         <v>0.1549053780554419</v>
       </c>
     </row>
-    <row r="23" spans="1:3">
+    <row r="23" spans="1:2">
       <c r="A23" s="2">
         <v>40056</v>
       </c>
       <c r="B23">
-        <v>0.1171085000000001</v>
-      </c>
-      <c r="C23">
         <v>0.08973848650688976</v>
       </c>
     </row>
-    <row r="24" spans="1:3">
+    <row r="24" spans="1:2">
       <c r="A24" s="2">
         <v>40086</v>
       </c>
       <c r="B24">
-        <v>0.15033959</v>
-      </c>
-      <c r="C24">
         <v>0.02974741486614763</v>
       </c>
     </row>
-    <row r="25" spans="1:3">
+    <row r="25" spans="1:2">
       <c r="A25" s="2">
         <v>40117</v>
       </c>
       <c r="B25">
-        <v>0.17344395</v>
-      </c>
-      <c r="C25">
         <v>0.02008481686699137</v>
       </c>
     </row>
-    <row r="26" spans="1:3">
+    <row r="26" spans="1:2">
       <c r="A26" s="2">
         <v>40147</v>
       </c>
       <c r="B26">
-        <v>0.2375814599999999</v>
-      </c>
-      <c r="C26">
         <v>0.05465749770153061</v>
       </c>
     </row>
-    <row r="27" spans="1:3">
+    <row r="27" spans="1:2">
       <c r="A27" s="2">
         <v>40178</v>
       </c>
       <c r="B27">
-        <v>0.27038765</v>
-      </c>
-      <c r="C27">
         <v>0.02650830758243594</v>
       </c>
     </row>
-    <row r="28" spans="1:3">
+    <row r="28" spans="1:2">
       <c r="A28" s="2">
         <v>40209</v>
       </c>
       <c r="B28">
-        <v>0.2317645500000001</v>
-      </c>
-      <c r="C28">
         <v>-0.0304026097860759</v>
       </c>
     </row>
-    <row r="29" spans="1:3">
+    <row r="29" spans="1:2">
       <c r="A29" s="2">
         <v>40237</v>
       </c>
       <c r="B29">
-        <v>0.2022555100000001</v>
-      </c>
-      <c r="C29">
         <v>-0.02395672127437021</v>
       </c>
     </row>
-    <row r="30" spans="1:3">
+    <row r="30" spans="1:2">
       <c r="A30" s="2">
         <v>40268</v>
       </c>
       <c r="B30">
-        <v>0.1576455299999999</v>
-      </c>
-      <c r="C30">
         <v>-0.0371052406322514</v>
       </c>
     </row>
-    <row r="31" spans="1:3">
+    <row r="31" spans="1:2">
       <c r="A31" s="2">
         <v>40298</v>
       </c>
       <c r="B31">
-        <v>0.14775004</v>
-      </c>
-      <c r="C31">
         <v>-0.008547944723632184</v>
       </c>
     </row>
-    <row r="32" spans="1:3">
+    <row r="32" spans="1:2">
       <c r="A32" s="2">
         <v>40329</v>
       </c>
       <c r="B32">
-        <v>0.1401043799999999</v>
-      </c>
-      <c r="C32">
         <v>-0.006661433006789674</v>
       </c>
     </row>
-    <row r="33" spans="1:3">
+    <row r="33" spans="1:2">
       <c r="A33" s="2">
         <v>40359</v>
       </c>
       <c r="B33">
-        <v>0.1251905099999999</v>
-      </c>
-      <c r="C33">
         <v>-0.01308114437732444</v>
       </c>
     </row>
-    <row r="34" spans="1:3">
+    <row r="34" spans="1:2">
       <c r="A34" s="2">
         <v>40390</v>
       </c>
       <c r="B34">
-        <v>0.1801409899999999</v>
-      </c>
-      <c r="C34">
         <v>0.04883660101256981</v>
       </c>
     </row>
-    <row r="35" spans="1:3">
+    <row r="35" spans="1:2">
       <c r="A35" s="2">
         <v>40421</v>
       </c>
       <c r="B35">
-        <v>0.2043101300000001</v>
-      </c>
-      <c r="C35">
         <v>0.02047987503594806</v>
       </c>
     </row>
-    <row r="36" spans="1:3">
+    <row r="36" spans="1:2">
       <c r="A36" s="2">
         <v>40451</v>
       </c>
       <c r="B36">
-        <v>0.2329012500000001</v>
-      </c>
-      <c r="C36">
         <v>0.02374066221630144</v>
       </c>
     </row>
-    <row r="37" spans="1:3">
+    <row r="37" spans="1:2">
       <c r="A37" s="2">
         <v>40482</v>
       </c>
       <c r="B37">
-        <v>0.3073630899999999</v>
-      </c>
-      <c r="C37">
         <v>0.06039562373709972</v>
       </c>
     </row>
-    <row r="38" spans="1:3">
+    <row r="38" spans="1:2">
       <c r="A38" s="2">
         <v>40512</v>
       </c>
       <c r="B38">
-        <v>0.2801652299999999</v>
-      </c>
-      <c r="C38">
         <v>-0.02080360093384614</v>
       </c>
     </row>
-    <row r="39" spans="1:3">
+    <row r="39" spans="1:2">
       <c r="A39" s="2">
         <v>40543</v>
       </c>
       <c r="B39">
-        <v>0.3072341199999999</v>
-      </c>
-      <c r="C39">
         <v>0.02114484081090073</v>
       </c>
     </row>
-    <row r="40" spans="1:3">
+    <row r="40" spans="1:2">
       <c r="A40" s="2">
         <v>40574</v>
       </c>
       <c r="B40">
-        <v>0.3237857799999999</v>
-      </c>
-      <c r="C40">
         <v>0.01266158811705442</v>
       </c>
     </row>
-    <row r="41" spans="1:3">
+    <row r="41" spans="1:2">
       <c r="A41" s="2">
         <v>40602</v>
       </c>
       <c r="B41">
-        <v>0.32562851</v>
-      </c>
-      <c r="C41">
         <v>0.001392015254915391</v>
       </c>
     </row>
-    <row r="42" spans="1:3">
+    <row r="42" spans="1:2">
       <c r="A42" s="2">
         <v>40633</v>
       </c>
       <c r="B42">
-        <v>0.36236778</v>
-      </c>
-      <c r="C42">
         <v>0.0277146045991421</v>
       </c>
     </row>
-    <row r="43" spans="1:3">
+    <row r="43" spans="1:2">
       <c r="A43" s="2">
         <v>40663</v>
       </c>
       <c r="B43">
-        <v>0.35932685</v>
-      </c>
-      <c r="C43">
         <v>-0.002232091836464334</v>
       </c>
     </row>
-    <row r="44" spans="1:3">
+    <row r="44" spans="1:2">
       <c r="A44" s="2">
         <v>40694</v>
       </c>
       <c r="B44">
-        <v>0.3949049600000001</v>
-      </c>
-      <c r="C44">
         <v>0.02617332983601406</v>
       </c>
     </row>
-    <row r="45" spans="1:3">
+    <row r="45" spans="1:2">
       <c r="A45" s="2">
         <v>40724</v>
       </c>
       <c r="B45">
-        <v>0.37965168</v>
-      </c>
-      <c r="C45">
         <v>-0.01093499588674485</v>
       </c>
     </row>
-    <row r="46" spans="1:3">
+    <row r="46" spans="1:2">
       <c r="A46" s="2">
         <v>40755</v>
       </c>
       <c r="B46">
-        <v>0.3299658599999999</v>
-      </c>
-      <c r="C46">
         <v>-0.03601330735885455</v>
       </c>
     </row>
-    <row r="47" spans="1:3">
+    <row r="47" spans="1:2">
       <c r="A47" s="2">
         <v>40786</v>
       </c>
       <c r="B47">
-        <v>0.28373936</v>
-      </c>
-      <c r="C47">
         <v>-0.03475765911765583</v>
       </c>
     </row>
-    <row r="48" spans="1:3">
+    <row r="48" spans="1:2">
       <c r="A48" s="2">
         <v>40816</v>
       </c>
       <c r="B48">
-        <v>0.2559811299999999</v>
-      </c>
-      <c r="C48">
         <v>-0.02162294844648227</v>
       </c>
     </row>
-    <row r="49" spans="1:3">
+    <row r="49" spans="1:2">
       <c r="A49" s="2">
         <v>40847</v>
       </c>
       <c r="B49">
-        <v>0.3160109099999999</v>
-      </c>
-      <c r="C49">
         <v>0.04779512889656234</v>
       </c>
     </row>
-    <row r="50" spans="1:3">
+    <row r="50" spans="1:2">
       <c r="A50" s="2">
         <v>40877</v>
       </c>
       <c r="B50">
-        <v>0.26550838</v>
-      </c>
-      <c r="C50">
         <v>-0.03837546453167318</v>
       </c>
     </row>
-    <row r="51" spans="1:3">
+    <row r="51" spans="1:2">
       <c r="A51" s="2">
         <v>40908</v>
       </c>
       <c r="B51">
-        <v>0.30267003</v>
-      </c>
-      <c r="C51">
         <v>0.0293649971721246</v>
       </c>
     </row>
-    <row r="52" spans="1:3">
+    <row r="52" spans="1:2">
       <c r="A52" s="2">
         <v>40939</v>
       </c>
       <c r="B52">
-        <v>0.37703325</v>
-      </c>
-      <c r="C52">
         <v>0.05708523132293131</v>
       </c>
     </row>
-    <row r="53" spans="1:3">
+    <row r="53" spans="1:2">
       <c r="A53" s="2">
         <v>40968</v>
       </c>
       <c r="B53">
-        <v>0.4512327199999999</v>
-      </c>
-      <c r="C53">
         <v>0.0538835718019155</v>
       </c>
     </row>
-    <row r="54" spans="1:3">
+    <row r="54" spans="1:2">
       <c r="A54" s="2">
         <v>40999</v>
       </c>
       <c r="B54">
-        <v>0.48822948</v>
-      </c>
-      <c r="C54">
         <v>0.02549333369495699</v>
       </c>
     </row>
-    <row r="55" spans="1:3">
+    <row r="55" spans="1:2">
       <c r="A55" s="2">
         <v>41029</v>
       </c>
       <c r="B55">
-        <v>0.45226251</v>
-      </c>
-      <c r="C55">
         <v>-0.02416762366513536</v>
       </c>
     </row>
-    <row r="56" spans="1:3">
+    <row r="56" spans="1:2">
       <c r="A56" s="2">
         <v>41060</v>
       </c>
       <c r="B56">
-        <v>0.36068335</v>
-      </c>
-      <c r="C56">
         <v>-0.063059646151714</v>
       </c>
     </row>
-    <row r="57" spans="1:3">
+    <row r="57" spans="1:2">
       <c r="A57" s="2">
         <v>41090</v>
       </c>
       <c r="B57">
-        <v>0.3500411699999999</v>
-      </c>
-      <c r="C57">
         <v>-0.007821202486236078</v>
       </c>
     </row>
-    <row r="58" spans="1:3">
+    <row r="58" spans="1:2">
       <c r="A58" s="2">
         <v>41121</v>
       </c>
       <c r="B58">
-        <v>0.38195538</v>
-      </c>
-      <c r="C58">
         <v>0.02363943464035256</v>
       </c>
     </row>
-    <row r="59" spans="1:3">
+    <row r="59" spans="1:2">
       <c r="A59" s="2">
         <v>41152</v>
       </c>
       <c r="B59">
-        <v>0.4643355600000001</v>
-      </c>
-      <c r="C59">
         <v>0.0596113168284782</v>
       </c>
     </row>
-    <row r="60" spans="1:3">
+    <row r="60" spans="1:2">
       <c r="A60" s="2">
         <v>41182</v>
       </c>
       <c r="B60">
-        <v>0.49495333</v>
-      </c>
-      <c r="C60">
         <v>0.02090898482312342</v>
       </c>
     </row>
-    <row r="61" spans="1:3">
+    <row r="61" spans="1:2">
       <c r="A61" s="2">
         <v>41213</v>
       </c>
       <c r="B61">
-        <v>0.54746666</v>
-      </c>
-      <c r="C61">
         <v>0.0351270698196311</v>
       </c>
     </row>
-    <row r="62" spans="1:3">
+    <row r="62" spans="1:2">
       <c r="A62" s="2">
         <v>41243</v>
       </c>
       <c r="B62">
-        <v>0.5595215</v>
-      </c>
-      <c r="C62">
         <v>0.007790048284465056</v>
       </c>
     </row>
-    <row r="63" spans="1:3">
+    <row r="63" spans="1:2">
       <c r="A63" s="2">
         <v>41274</v>
       </c>
       <c r="B63">
-        <v>0.6083715199999999</v>
-      </c>
-      <c r="C63">
         <v>0.03132372333436884</v>
       </c>
     </row>
-    <row r="64" spans="1:3">
+    <row r="64" spans="1:2">
       <c r="A64" s="2">
         <v>41305</v>
       </c>
       <c r="B64">
-        <v>0.6808467199999999</v>
-      </c>
-      <c r="C64">
         <v>0.04506123062910228</v>
       </c>
     </row>
-    <row r="65" spans="1:3">
+    <row r="65" spans="1:2">
       <c r="A65" s="2">
         <v>41333</v>
       </c>
       <c r="B65">
-        <v>0.7036615900000001</v>
-      </c>
-      <c r="C65">
         <v>0.01357343874877537</v>
       </c>
     </row>
-    <row r="66" spans="1:3">
+    <row r="66" spans="1:2">
       <c r="A66" s="2">
         <v>41364</v>
       </c>
       <c r="B66">
-        <v>0.72003214</v>
-      </c>
-      <c r="C66">
         <v>0.009609038611946286</v>
       </c>
     </row>
-    <row r="67" spans="1:3">
+    <row r="67" spans="1:2">
       <c r="A67" s="2">
         <v>41394</v>
       </c>
       <c r="B67">
-        <v>0.7049441999999999</v>
-      </c>
-      <c r="C67">
         <v>-0.008771894227511456</v>
       </c>
     </row>
-    <row r="68" spans="1:3">
+    <row r="68" spans="1:2">
       <c r="A68" s="2">
         <v>41425</v>
       </c>
       <c r="B68">
-        <v>0.6402567699999999</v>
-      </c>
-      <c r="C68">
         <v>-0.03794108335041113</v>
       </c>
     </row>
-    <row r="69" spans="1:3">
+    <row r="69" spans="1:2">
       <c r="A69" s="2">
         <v>41455</v>
       </c>
       <c r="B69">
-        <v>0.50636485</v>
-      </c>
-      <c r="C69">
         <v>-0.08162863427779055</v>
       </c>
     </row>
-    <row r="70" spans="1:3">
+    <row r="70" spans="1:2">
       <c r="A70" s="2">
         <v>41486</v>
       </c>
       <c r="B70">
-        <v>0.49593792</v>
-      </c>
-      <c r="C70">
         <v>-0.006921915364660802</v>
       </c>
     </row>
-    <row r="71" spans="1:3">
+    <row r="71" spans="1:2">
       <c r="A71" s="2">
         <v>41517</v>
       </c>
       <c r="B71">
-        <v>0.5064684100000001</v>
-      </c>
-      <c r="C71">
         <v>0.007039389709434074</v>
       </c>
     </row>
-    <row r="72" spans="1:3">
+    <row r="72" spans="1:2">
       <c r="A72" s="2">
         <v>41547</v>
       </c>
       <c r="B72">
-        <v>0.54556144</v>
-      </c>
-      <c r="C72">
         <v>0.02595011600674701</v>
       </c>
     </row>
-    <row r="73" spans="1:3">
+    <row r="73" spans="1:2">
       <c r="A73" s="2">
         <v>41578</v>
       </c>
       <c r="B73">
-        <v>0.53026514</v>
-      </c>
-      <c r="C73">
         <v>-0.00989692134141229</v>
       </c>
     </row>
-    <row r="74" spans="1:3">
+    <row r="74" spans="1:2">
       <c r="A74" s="2">
         <v>41608</v>
       </c>
       <c r="B74">
-        <v>0.4824437800000001</v>
-      </c>
-      <c r="C74">
         <v>-0.03125037534345187</v>
       </c>
     </row>
-    <row r="75" spans="1:3">
+    <row r="75" spans="1:2">
       <c r="A75" s="2">
         <v>41639</v>
       </c>
       <c r="B75">
-        <v>0.45071799</v>
-      </c>
-      <c r="C75">
         <v>-0.02140100719367588</v>
       </c>
     </row>
-    <row r="76" spans="1:3">
+    <row r="76" spans="1:2">
       <c r="A76" s="2">
         <v>41670</v>
       </c>
       <c r="B76">
-        <v>0.3577288700000001</v>
-      </c>
-      <c r="C76">
         <v>-0.06409868812614639</v>
       </c>
     </row>
-    <row r="77" spans="1:3">
+    <row r="77" spans="1:2">
       <c r="A77" s="2">
         <v>41698</v>
       </c>
       <c r="B77">
-        <v>0.3203420400000001</v>
-      </c>
-      <c r="C77">
         <v>-0.02753630038079691</v>
       </c>
     </row>
-    <row r="78" spans="1:3">
+    <row r="78" spans="1:2">
       <c r="A78" s="2">
         <v>41729</v>
       </c>
       <c r="B78">
-        <v>0.28862038</v>
-      </c>
-      <c r="C78">
         <v>-0.02402533513209959</v>
       </c>
     </row>
-    <row r="79" spans="1:3">
+    <row r="79" spans="1:2">
       <c r="A79" s="2">
         <v>41759</v>
       </c>
       <c r="B79">
-        <v>0.2689262100000001</v>
-      </c>
-      <c r="C79">
         <v>-0.0152831433567735</v>
       </c>
     </row>
-    <row r="80" spans="1:3">
+    <row r="80" spans="1:2">
       <c r="A80" s="2">
         <v>41790</v>
       </c>
       <c r="B80">
-        <v>0.26404494</v>
-      </c>
-      <c r="C80">
         <v>-0.003846772146033683</v>
       </c>
     </row>
-    <row r="81" spans="1:3">
+    <row r="81" spans="1:2">
       <c r="A81" s="2">
         <v>41820</v>
       </c>
       <c r="B81">
-        <v>0.2790444299999999</v>
-      </c>
-      <c r="C81">
         <v>0.01186626323586237</v>
       </c>
     </row>
-    <row r="82" spans="1:3">
+    <row r="82" spans="1:2">
       <c r="A82" s="2">
         <v>41851</v>
       </c>
       <c r="B82">
-        <v>0.3032234199999999</v>
-      </c>
-      <c r="C82">
         <v>0.01890394847347099</v>
       </c>
     </row>
-    <row r="83" spans="1:3">
+    <row r="83" spans="1:2">
       <c r="A83" s="2">
         <v>41882</v>
       </c>
       <c r="B83">
-        <v>0.3446081400000001</v>
-      </c>
-      <c r="C83">
         <v>0.03175566013078557</v>
       </c>
     </row>
-    <row r="84" spans="1:3">
+    <row r="84" spans="1:2">
       <c r="A84" s="2">
         <v>41912</v>
       </c>
       <c r="B84">
-        <v>0.3136794599999999</v>
-      </c>
-      <c r="C84">
         <v>-0.02300200265037822</v>
       </c>
     </row>
-    <row r="85" spans="1:3">
+    <row r="85" spans="1:2">
       <c r="A85" s="2">
         <v>41943</v>
       </c>
       <c r="B85">
-        <v>0.4246296000000001</v>
-      </c>
-      <c r="C85">
         <v>0.0844575433949466</v>
       </c>
     </row>
-    <row r="86" spans="1:3">
+    <row r="86" spans="1:2">
       <c r="A86" s="2">
         <v>41973</v>
       </c>
       <c r="B86">
-        <v>0.4503299999999999</v>
-      </c>
-      <c r="C86">
         <v>0.01804005757005189</v>
       </c>
     </row>
-    <row r="87" spans="1:3">
+    <row r="87" spans="1:2">
       <c r="A87" s="2">
         <v>42004</v>
       </c>
       <c r="B87">
-        <v>0.4230128</v>
-      </c>
-      <c r="C87">
         <v>-0.01883516165286514</v>
       </c>
     </row>
-    <row r="88" spans="1:3">
+    <row r="88" spans="1:2">
       <c r="A88" s="2">
         <v>42035</v>
       </c>
       <c r="B88">
-        <v>0.2897985999999999</v>
-      </c>
-      <c r="C88">
         <v>-0.09361419658347425</v>
       </c>
     </row>
-    <row r="89" spans="1:3">
+    <row r="89" spans="1:2">
       <c r="A89" s="2">
         <v>42063</v>
       </c>
       <c r="B89">
-        <v>0.3451538999999999</v>
-      </c>
-      <c r="C89">
         <v>0.04291778576903393</v>
       </c>
     </row>
-    <row r="90" spans="1:3">
+    <row r="90" spans="1:2">
       <c r="A90" s="2">
         <v>42094</v>
       </c>
       <c r="B90">
-        <v>0.3664088999999999</v>
-      </c>
-      <c r="C90">
         <v>0.01580116594837211</v>
       </c>
     </row>
-    <row r="91" spans="1:3">
+    <row r="91" spans="1:2">
       <c r="A91" s="2">
         <v>42124</v>
       </c>
       <c r="B91">
-        <v>0.3825080000000001</v>
-      </c>
-      <c r="C91">
         <v>0.01178205147814837</v>
       </c>
     </row>
-    <row r="92" spans="1:3">
+    <row r="92" spans="1:2">
       <c r="A92" s="2">
         <v>42155</v>
       </c>
       <c r="B92">
-        <v>0.3898204000000001</v>
-      </c>
-      <c r="C92">
         <v>0.005289227982767652</v>
       </c>
     </row>
-    <row r="93" spans="1:3">
+    <row r="93" spans="1:2">
       <c r="A93" s="2">
         <v>42185</v>
       </c>
       <c r="B93">
-        <v>0.4431984</v>
-      </c>
-      <c r="C93">
         <v>0.03840640128753314</v>
       </c>
     </row>
-    <row r="94" spans="1:3">
+    <row r="94" spans="1:2">
       <c r="A94" s="2">
         <v>42216</v>
       </c>
       <c r="B94">
-        <v>0.4451046999999999</v>
-      </c>
-      <c r="C94">
         <v>0.001320885610737843</v>
       </c>
     </row>
-    <row r="95" spans="1:3">
+    <row r="95" spans="1:2">
       <c r="A95" s="2">
         <v>42247</v>
       </c>
       <c r="B95">
-        <v>0.4405665999999999</v>
-      </c>
-      <c r="C95">
         <v>-0.003140326095403267</v>
       </c>
     </row>
-    <row r="96" spans="1:3">
+    <row r="96" spans="1:2">
       <c r="A96" s="2">
         <v>42277</v>
       </c>
       <c r="B96">
-        <v>0.3857851000000001</v>
-      </c>
-      <c r="C96">
         <v>-0.03802774547181631</v>
       </c>
     </row>
-    <row r="97" spans="1:3">
+    <row r="97" spans="1:2">
       <c r="A97" s="2">
         <v>42308</v>
       </c>
       <c r="B97">
-        <v>0.4624971</v>
-      </c>
-      <c r="C97">
         <v>0.05535634637722686</v>
       </c>
     </row>
-    <row r="98" spans="1:3">
+    <row r="98" spans="1:2">
       <c r="A98" s="2">
         <v>42338</v>
       </c>
       <c r="B98">
-        <v>0.4506451</v>
-      </c>
-      <c r="C98">
         <v>-0.008103947693297919</v>
       </c>
     </row>
-    <row r="99" spans="1:3">
+    <row r="99" spans="1:2">
       <c r="A99" s="2">
         <v>42369</v>
       </c>
       <c r="B99">
-        <v>0.528937</v>
-      </c>
-      <c r="C99">
         <v>0.05397040254711505</v>
       </c>
     </row>
-    <row r="100" spans="1:3">
+    <row r="100" spans="1:2">
       <c r="A100" s="2">
         <v>42400</v>
       </c>
       <c r="B100">
-        <v>0.4912590999999999</v>
-      </c>
-      <c r="C100">
         <v>-0.02464319981791274</v>
       </c>
     </row>
-    <row r="101" spans="1:3">
+    <row r="101" spans="1:2">
       <c r="A101" s="2">
         <v>42429</v>
       </c>
       <c r="B101">
-        <v>0.5821662999999999</v>
-      </c>
-      <c r="C101">
         <v>0.06096003035287434</v>
       </c>
     </row>
-    <row r="102" spans="1:3">
+    <row r="102" spans="1:2">
       <c r="A102" s="2">
         <v>42460</v>
       </c>
       <c r="B102">
-        <v>0.7473974000000001</v>
-      </c>
-      <c r="C102">
         <v>0.1044334593651757</v>
       </c>
     </row>
-    <row r="103" spans="1:3">
+    <row r="103" spans="1:2">
       <c r="A103" s="2">
         <v>42490</v>
       </c>
       <c r="B103">
-        <v>0.8582212</v>
-      </c>
-      <c r="C103">
         <v>0.06342220722086456</v>
       </c>
     </row>
-    <row r="104" spans="1:3">
+    <row r="104" spans="1:2">
       <c r="A104" s="2">
         <v>42521</v>
       </c>
       <c r="B104">
-        <v>0.7811695999999999</v>
-      </c>
-      <c r="C104">
         <v>-0.04146524644105887</v>
       </c>
     </row>
-    <row r="105" spans="1:3">
+    <row r="105" spans="1:2">
       <c r="A105" s="2">
         <v>42551</v>
       </c>
       <c r="B105">
-        <v>0.8659654000000001</v>
-      </c>
-      <c r="C105">
         <v>0.04760680847012</v>
       </c>
     </row>
-    <row r="106" spans="1:3">
+    <row r="106" spans="1:2">
       <c r="A106" s="2">
         <v>42582</v>
       </c>
       <c r="B106">
-        <v>0.9737198</v>
-      </c>
-      <c r="C106">
         <v>0.05774726583890555</v>
       </c>
     </row>
-    <row r="107" spans="1:3">
+    <row r="107" spans="1:2">
       <c r="A107" s="2">
         <v>42613</v>
       </c>
       <c r="B107">
-        <v>1.0058059</v>
-      </c>
-      <c r="C107">
         <v>0.01625666419316452</v>
       </c>
     </row>
-    <row r="108" spans="1:3">
+    <row r="108" spans="1:2">
       <c r="A108" s="2">
         <v>42643</v>
       </c>
       <c r="B108">
-        <v>1.0351487</v>
-      </c>
-      <c r="C108">
         <v>0.01462893293912448</v>
       </c>
     </row>
-    <row r="109" spans="1:3">
+    <row r="109" spans="1:2">
       <c r="A109" s="2">
         <v>42674</v>
       </c>
       <c r="B109">
-        <v>1.1007187</v>
-      </c>
-      <c r="C109">
         <v>0.03221877595479872</v>
       </c>
     </row>
-    <row r="110" spans="1:3">
+    <row r="110" spans="1:2">
       <c r="A110" s="2">
         <v>42704</v>
       </c>
       <c r="B110">
-        <v>1.119675</v>
-      </c>
-      <c r="C110">
         <v>0.009023721262632733</v>
       </c>
     </row>
-    <row r="111" spans="1:3">
+    <row r="111" spans="1:2">
       <c r="A111" s="2">
         <v>42735</v>
       </c>
       <c r="B111">
-        <v>1.1741085</v>
-      </c>
-      <c r="C111">
         <v>0.02568011605552734</v>
       </c>
     </row>
-    <row r="112" spans="1:3">
+    <row r="112" spans="1:2">
       <c r="A112" s="2">
         <v>42766</v>
       </c>
       <c r="B112">
-        <v>1.3106546</v>
-      </c>
-      <c r="C112">
         <v>0.06280555915217656</v>
       </c>
     </row>
-    <row r="113" spans="1:3">
+    <row r="113" spans="1:2">
       <c r="A113" s="2">
         <v>42794</v>
       </c>
       <c r="B113">
-        <v>1.3974662</v>
-      </c>
-      <c r="C113">
         <v>0.03757013272342835</v>
       </c>
     </row>
-    <row r="114" spans="1:3">
+    <row r="114" spans="1:2">
       <c r="A114" s="2">
         <v>42825</v>
       </c>
       <c r="B114">
-        <v>1.4042279</v>
-      </c>
-      <c r="C114">
         <v>0.002820352587243891</v>
       </c>
     </row>
-    <row r="115" spans="1:3">
+    <row r="115" spans="1:2">
       <c r="A115" s="2">
         <v>42855</v>
       </c>
       <c r="B115">
-        <v>1.3848393</v>
-      </c>
-      <c r="C115">
         <v>-0.008064376925332239</v>
       </c>
     </row>
-    <row r="116" spans="1:3">
+    <row r="116" spans="1:2">
       <c r="A116" s="2">
         <v>42886</v>
       </c>
       <c r="B116">
-        <v>1.3513399</v>
-      </c>
-      <c r="C116">
         <v>-0.0140468164878027</v>
       </c>
     </row>
-    <row r="117" spans="1:3">
+    <row r="117" spans="1:2">
       <c r="A117" s="2">
         <v>42916</v>
       </c>
       <c r="B117">
-        <v>1.415827</v>
-      </c>
-      <c r="C117">
         <v>0.02742568184208505</v>
       </c>
     </row>
-    <row r="118" spans="1:3">
+    <row r="118" spans="1:2">
       <c r="A118" s="2">
         <v>42947</v>
       </c>
       <c r="B118">
-        <v>1.4845599</v>
-      </c>
-      <c r="C118">
         <v>0.02845108528052709</v>
       </c>
     </row>
-    <row r="119" spans="1:3">
+    <row r="119" spans="1:2">
       <c r="A119" s="2">
         <v>42978</v>
       </c>
       <c r="B119">
-        <v>1.5358725</v>
-      </c>
-      <c r="C119">
         <v>0.02065259122953744</v>
       </c>
     </row>
-    <row r="120" spans="1:3">
+    <row r="120" spans="1:2">
       <c r="A120" s="2">
         <v>43008</v>
       </c>
       <c r="B120">
-        <v>1.5551218</v>
-      </c>
-      <c r="C120">
         <v>0.007590799616305821</v>
       </c>
     </row>
-    <row r="121" spans="1:3">
+    <row r="121" spans="1:2">
       <c r="A121" s="2">
         <v>43039</v>
       </c>
       <c r="B121">
-        <v>1.5493985</v>
-      </c>
-      <c r="C121">
         <v>-0.0022399323586062</v>
       </c>
     </row>
-    <row r="122" spans="1:3">
+    <row r="122" spans="1:2">
       <c r="A122" s="2">
         <v>43069</v>
       </c>
       <c r="B122">
-        <v>1.4580741</v>
-      </c>
-      <c r="C122">
         <v>-0.03582193995956295</v>
       </c>
     </row>
-    <row r="123" spans="1:3">
+    <row r="123" spans="1:2">
       <c r="A123" s="2">
         <v>43100</v>
       </c>
       <c r="B123">
-        <v>1.5580963</v>
-      </c>
-      <c r="C123">
         <v>0.04069128754092466</v>
       </c>
     </row>
-    <row r="124" spans="1:3">
+    <row r="124" spans="1:2">
       <c r="A124" s="2">
         <v>43131</v>
       </c>
       <c r="B124">
-        <v>1.5804343</v>
-      </c>
-      <c r="C124">
         <v>0.008732274856110722</v>
       </c>
     </row>
-    <row r="125" spans="1:3">
+    <row r="125" spans="1:2">
       <c r="A125" s="2">
         <v>43159</v>
       </c>
       <c r="B125">
-        <v>1.6113756</v>
-      </c>
-      <c r="C125">
         <v>0.01199073349784574</v>
       </c>
     </row>
-    <row r="126" spans="1:3">
+    <row r="126" spans="1:2">
       <c r="A126" s="2">
         <v>43190</v>
       </c>
       <c r="B126">
-        <v>1.6582818</v>
-      </c>
-      <c r="C126">
         <v>0.01796225713374966</v>
       </c>
     </row>
-    <row r="127" spans="1:3">
+    <row r="127" spans="1:2">
       <c r="A127" s="2">
         <v>43220</v>
       </c>
       <c r="B127">
-        <v>1.7017733</v>
-      </c>
-      <c r="C127">
         <v>0.01636075603421738</v>
       </c>
     </row>
-    <row r="128" spans="1:3">
+    <row r="128" spans="1:2">
       <c r="A128" s="2">
         <v>43251</v>
       </c>
       <c r="B128">
-        <v>1.5173349</v>
-      </c>
-      <c r="C128">
         <v>-0.06826568313485082</v>
       </c>
     </row>
-    <row r="129" spans="1:3">
+    <row r="129" spans="1:2">
       <c r="A129" s="2">
         <v>43281</v>
       </c>
       <c r="B129">
-        <v>1.5647116</v>
-      </c>
-      <c r="C129">
         <v>0.01882018161349919</v>
       </c>
     </row>
-    <row r="130" spans="1:3">
+    <row r="130" spans="1:2">
       <c r="A130" s="2">
         <v>43312</v>
       </c>
       <c r="B130">
-        <v>1.6936801</v>
-      </c>
-      <c r="C130">
         <v>0.05028577092254749</v>
       </c>
     </row>
-    <row r="131" spans="1:3">
+    <row r="131" spans="1:2">
       <c r="A131" s="2">
         <v>43343</v>
       </c>
       <c r="B131">
-        <v>1.6946994</v>
-      </c>
-      <c r="C131">
         <v>0.0003784042507497531</v>
       </c>
     </row>
-    <row r="132" spans="1:3">
+    <row r="132" spans="1:2">
       <c r="A132" s="2">
         <v>43373</v>
       </c>
       <c r="B132">
-        <v>1.5614726</v>
-      </c>
-      <c r="C132">
         <v>-0.04944031976256802</v>
       </c>
     </row>
-    <row r="133" spans="1:3">
+    <row r="133" spans="1:2">
       <c r="A133" s="2">
         <v>43404</v>
       </c>
       <c r="B133">
-        <v>2.0529845</v>
-      </c>
-      <c r="C133">
         <v>0.191886456251767</v>
       </c>
     </row>
-    <row r="134" spans="1:3">
+    <row r="134" spans="1:2">
       <c r="A134" s="2">
         <v>43434</v>
       </c>
       <c r="B134">
-        <v>2.1821612</v>
-      </c>
-      <c r="C134">
         <v>0.04231161343924272</v>
       </c>
     </row>
-    <row r="135" spans="1:3">
+    <row r="135" spans="1:2">
       <c r="A135" s="2">
         <v>43465</v>
       </c>
       <c r="B135">
-        <v>2.218597</v>
-      </c>
-      <c r="C135">
         <v>0.01145001705130455</v>
       </c>
     </row>
-    <row r="136" spans="1:3">
+    <row r="136" spans="1:2">
       <c r="A136" s="2">
         <v>43496</v>
       </c>
       <c r="B136">
-        <v>2.520203</v>
-      </c>
-      <c r="C136">
         <v>0.09370728923192306</v>
       </c>
     </row>
-    <row r="137" spans="1:3">
+    <row r="137" spans="1:2">
       <c r="A137" s="2">
         <v>43524</v>
       </c>
       <c r="B137">
-        <v>2.5423696</v>
-      </c>
-      <c r="C137">
         <v>0.006296966396540205</v>
       </c>
     </row>
-    <row r="138" spans="1:3">
+    <row r="138" spans="1:2">
       <c r="A138" s="2">
         <v>43555</v>
       </c>
       <c r="B138">
-        <v>2.6067657</v>
-      </c>
-      <c r="C138">
         <v>0.01817882018861061</v>
       </c>
     </row>
-    <row r="139" spans="1:3">
+    <row r="139" spans="1:2">
       <c r="A139" s="2">
         <v>43585</v>
       </c>
       <c r="B139">
-        <v>2.6983646</v>
-      </c>
-      <c r="C139">
         <v>0.02539640986382907</v>
       </c>
     </row>
-    <row r="140" spans="1:3">
+    <row r="140" spans="1:2">
       <c r="A140" s="2">
         <v>43616</v>
       </c>
       <c r="B140">
-        <v>2.7174962</v>
-      </c>
-      <c r="C140">
         <v>0.005172989163913178</v>
       </c>
     </row>
-    <row r="141" spans="1:3">
+    <row r="141" spans="1:2">
       <c r="A141" s="2">
         <v>43646</v>
       </c>
       <c r="B141">
-        <v>2.8855045</v>
-      </c>
-      <c r="C141">
         <v>0.04519393994269594</v>
       </c>
     </row>
-    <row r="142" spans="1:3">
+    <row r="142" spans="1:2">
       <c r="A142" s="2">
         <v>43677</v>
       </c>
       <c r="B142">
-        <v>2.975669</v>
-      </c>
-      <c r="C142">
         <v>0.02320535209777774</v>
       </c>
     </row>
-    <row r="143" spans="1:3">
+    <row r="143" spans="1:2">
       <c r="A143" s="2">
         <v>43708</v>
       </c>
       <c r="B143">
-        <v>2.9809949</v>
-      </c>
-      <c r="C143">
         <v>0.001339623595425055</v>
       </c>
     </row>
-    <row r="144" spans="1:3">
+    <row r="144" spans="1:2">
       <c r="A144" s="2">
         <v>43738</v>
       </c>
       <c r="B144">
-        <v>3.0066301</v>
-      </c>
-      <c r="C144">
         <v>0.006439395338085019</v>
       </c>
     </row>
-    <row r="145" spans="1:3">
+    <row r="145" spans="1:2">
       <c r="A145" s="2">
         <v>43769</v>
       </c>
       <c r="B145">
-        <v>2.992547</v>
-      </c>
-      <c r="C145">
         <v>-0.003514948884350333</v>
       </c>
     </row>
-    <row r="146" spans="1:3">
+    <row r="146" spans="1:2">
       <c r="A146" s="2">
         <v>43799</v>
       </c>
       <c r="B146">
-        <v>3.1435021</v>
-      </c>
-      <c r="C146">
         <v>0.03780922303481971</v>
       </c>
     </row>
-    <row r="147" spans="1:3">
+    <row r="147" spans="1:2">
       <c r="A147" s="2">
         <v>43830</v>
       </c>
       <c r="B147">
-        <v>3.3838101</v>
-      </c>
-      <c r="C147">
         <v>0.05799635047849971</v>
       </c>
     </row>
-    <row r="148" spans="1:3">
+    <row r="148" spans="1:2">
       <c r="A148" s="2">
         <v>43861</v>
       </c>
       <c r="B148">
-        <v>3.3350699</v>
-      </c>
-      <c r="C148">
         <v>-0.01111822795426287</v>
       </c>
     </row>
-    <row r="149" spans="1:3">
+    <row r="149" spans="1:2">
       <c r="A149" s="2">
         <v>43890</v>
       </c>
       <c r="B149">
-        <v>3.101153</v>
-      </c>
-      <c r="C149">
         <v>-0.05395919913540492</v>
       </c>
     </row>
-    <row r="150" spans="1:3">
+    <row r="150" spans="1:2">
       <c r="A150" s="2">
         <v>43921</v>
       </c>
       <c r="B150">
-        <v>1.8754262</v>
-      </c>
-      <c r="C150">
         <v>-0.2988737069794762</v>
       </c>
     </row>
-    <row r="151" spans="1:3">
+    <row r="151" spans="1:2">
       <c r="A151" s="2">
         <v>43951</v>
       </c>
       <c r="B151">
-        <v>2.2195391</v>
-      </c>
-      <c r="C151">
         <v>0.1196737026323262</v>
       </c>
     </row>
-    <row r="152" spans="1:3">
+    <row r="152" spans="1:2">
       <c r="A152" s="2">
         <v>43982</v>
       </c>
       <c r="B152">
-        <v>2.5755922</v>
-      </c>
-      <c r="C152">
         <v>0.1105913265659673</v>
       </c>
     </row>
-    <row r="153" spans="1:3">
+    <row r="153" spans="1:2">
       <c r="A153" s="2">
         <v>44012</v>
       </c>
       <c r="B153">
-        <v>2.9479003</v>
-      </c>
-      <c r="C153">
         <v>0.1041248775517523</v>
       </c>
     </row>
-    <row r="154" spans="1:3">
+    <row r="154" spans="1:2">
       <c r="A154" s="2">
         <v>44043</v>
       </c>
       <c r="B154">
-        <v>3.1789655</v>
-      </c>
-      <c r="C154">
         <v>0.05852863102951211</v>
       </c>
     </row>
-    <row r="155" spans="1:3">
+    <row r="155" spans="1:2">
       <c r="A155" s="2">
         <v>44074</v>
       </c>
       <c r="B155">
-        <v>3.0624212</v>
-      </c>
-      <c r="C155">
         <v>-0.0278883135072544</v>
       </c>
     </row>
-    <row r="156" spans="1:3">
+    <row r="156" spans="1:2">
       <c r="A156" s="2">
         <v>44104</v>
       </c>
       <c r="B156">
-        <v>3.0564605</v>
-      </c>
-      <c r="C156">
         <v>-0.001467277691441726</v>
       </c>
     </row>
-    <row r="157" spans="1:3">
+    <row r="157" spans="1:2">
       <c r="A157" s="2">
         <v>44135</v>
       </c>
       <c r="B157">
-        <v>2.8624922</v>
-      </c>
-      <c r="C157">
         <v>-0.04781713022966694</v>
       </c>
     </row>
-    <row r="158" spans="1:3">
+    <row r="158" spans="1:2">
       <c r="A158" s="2">
         <v>44165</v>
       </c>
       <c r="B158">
-        <v>3.2724452</v>
-      </c>
-      <c r="C158">
-        <v>0.1061369133638639</v>
+        <v>0.08549247037961649</v>
       </c>
     </row>
   </sheetData>
